--- a/ExcelReader/src/test/java/resources/testdata.xlsx
+++ b/ExcelReader/src/test/java/resources/testdata.xlsx
@@ -1,28 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16065"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="10320" windowHeight="6435"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -33,41 +26,38 @@
     <t>Password</t>
   </si>
   <si>
+    <t xml:space="preserve">Username Error </t>
+  </si>
+  <si>
+    <t>Password Error</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Invalid Username and Invalid Password Login Test</t>
+  </si>
+  <si>
     <t>onur@swtestacademy.com</t>
   </si>
   <si>
-    <t>11122233444</t>
-  </si>
-  <si>
-    <t>Invalid Username and Invalid Password Login Test</t>
+    <t>E-posta adresiniz veya şifreniz hatalı</t>
   </si>
   <si>
     <t>Empty Username and Empty Password Login Test</t>
   </si>
   <si>
-    <t>Password Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Username Error </t>
+    <t>Lütfen e-posta adresinizi girin.</t>
   </si>
   <si>
     <t>Bu alanın doldurulması zorunludur.</t>
-  </si>
-  <si>
-    <t>Lütfen e-posta adresinizi girin.</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>E-posta adresiniz veya şifreniz hatalı</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,7 +71,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -90,6 +79,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,33 +127,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -173,14 +157,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -227,12 +203,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -259,15 +235,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -294,7 +269,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -470,24 +444,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="45" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="20.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,34 +464,32 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="105">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="105">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -533,167 +497,14 @@
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18"/>
-      <c r="D18"/>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19"/>
-      <c r="D19"/>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20"/>
-      <c r="D20"/>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21"/>
-      <c r="D21"/>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22"/>
-      <c r="D22"/>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23"/>
-      <c r="D23"/>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24"/>
-      <c r="D24"/>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25"/>
-      <c r="D25"/>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26"/>
-      <c r="D26"/>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27"/>
-      <c r="D27"/>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28"/>
-      <c r="D28"/>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C29"/>
-      <c r="D29"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/ExcelReader/src/test/java/resources/testdata.xlsx
+++ b/ExcelReader/src/test/java/resources/testdata.xlsx
@@ -448,7 +448,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
